--- a/artfynd/A 44015-2019.xlsx
+++ b/artfynd/A 44015-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112194222</v>
+        <v>112194228</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,50 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>511065.3417459401</v>
+        <v>511193</v>
       </c>
       <c r="R2" t="n">
-        <v>7080083.269521654</v>
+        <v>7079842</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -769,19 +753,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -808,7 +782,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112194221</v>
+        <v>112194226</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -842,20 +816,16 @@
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>511121.4841101488</v>
+        <v>511177</v>
       </c>
       <c r="R3" t="n">
-        <v>7080072.8791526</v>
+        <v>7079788</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -885,24 +855,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -929,7 +884,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112194220</v>
+        <v>112194221</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -973,10 +928,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>511162.5924339014</v>
+        <v>511121</v>
       </c>
       <c r="R4" t="n">
-        <v>7080066.407062272</v>
+        <v>7080073</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1006,19 +961,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1050,7 +995,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112194219</v>
+        <v>112194223</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1094,10 +1039,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>511201.2108682131</v>
+        <v>510986</v>
       </c>
       <c r="R5" t="n">
-        <v>7080014.923709841</v>
+        <v>7079917</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1127,24 +1072,14 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1171,7 +1106,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112194225</v>
+        <v>112194222</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1204,17 +1139,33 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>511026.1572033135</v>
+        <v>511065</v>
       </c>
       <c r="R6" t="n">
-        <v>7079793.692244364</v>
+        <v>7080083</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1244,19 +1195,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1283,10 +1224,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112194228</v>
+        <v>112194219</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1299,34 +1240,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>511192.5501272334</v>
+        <v>511201</v>
       </c>
       <c r="R7" t="n">
-        <v>7079841.934509887</v>
+        <v>7080015</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1356,19 +1301,14 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1395,7 +1335,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112194223</v>
+        <v>112194225</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1429,20 +1369,16 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>510985.5200524348</v>
+        <v>511026</v>
       </c>
       <c r="R8" t="n">
-        <v>7079917.094234033</v>
+        <v>7079794</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1472,24 +1408,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1516,7 +1437,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112194226</v>
+        <v>112194220</v>
       </c>
       <c r="B9" t="n">
         <v>56398</v>
@@ -1550,16 +1471,20 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>511177.2801961624</v>
+        <v>511163</v>
       </c>
       <c r="R9" t="n">
-        <v>7079787.608066312</v>
+        <v>7080066</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1589,19 +1514,14 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 44015-2019.xlsx
+++ b/artfynd/A 44015-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112194228</v>
+        <v>112194225</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>511193</v>
+        <v>511026</v>
       </c>
       <c r="R2" t="n">
-        <v>7079842</v>
+        <v>7079794</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112194226</v>
+        <v>112194220</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,16 +816,20 @@
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>511177</v>
+        <v>511163</v>
       </c>
       <c r="R3" t="n">
-        <v>7079788</v>
+        <v>7080066</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -858,6 +862,11 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,10 +893,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112194221</v>
+        <v>112194226</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,20 +927,16 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>511121</v>
+        <v>511177</v>
       </c>
       <c r="R4" t="n">
-        <v>7080073</v>
+        <v>7079788</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -964,11 +969,6 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -995,10 +995,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112194223</v>
+        <v>112194222</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,21 +1028,33 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>510986</v>
+        <v>511065</v>
       </c>
       <c r="R5" t="n">
-        <v>7079917</v>
+        <v>7080083</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1075,11 +1087,6 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1106,10 +1113,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112194222</v>
+        <v>112194228</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1122,50 +1129,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>511065</v>
+        <v>511193</v>
       </c>
       <c r="R6" t="n">
-        <v>7080083</v>
+        <v>7079842</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1224,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112194219</v>
+        <v>112194223</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1268,10 +1259,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>511201</v>
+        <v>510986</v>
       </c>
       <c r="R7" t="n">
-        <v>7080015</v>
+        <v>7079917</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1308,7 +1299,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1335,10 +1326,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112194225</v>
+        <v>112194219</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1369,16 +1360,20 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>511026</v>
+        <v>511201</v>
       </c>
       <c r="R8" t="n">
-        <v>7079794</v>
+        <v>7080015</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1411,6 +1406,11 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1437,10 +1437,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112194220</v>
+        <v>112194221</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>511163</v>
+        <v>511121</v>
       </c>
       <c r="R9" t="n">
-        <v>7080066</v>
+        <v>7080073</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>

--- a/artfynd/A 44015-2019.xlsx
+++ b/artfynd/A 44015-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112194225</v>
+        <v>112194219</v>
       </c>
       <c r="B2" t="n">
         <v>56430</v>
@@ -714,16 +714,20 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>511026</v>
+        <v>511201</v>
       </c>
       <c r="R2" t="n">
-        <v>7079794</v>
+        <v>7080015</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,6 +760,11 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -782,7 +791,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112194220</v>
+        <v>112194223</v>
       </c>
       <c r="B3" t="n">
         <v>56430</v>
@@ -826,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>511163</v>
+        <v>510986</v>
       </c>
       <c r="R3" t="n">
-        <v>7080066</v>
+        <v>7079917</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -866,7 +875,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -893,7 +902,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112194226</v>
+        <v>112194222</v>
       </c>
       <c r="B4" t="n">
         <v>56430</v>
@@ -926,17 +935,33 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>511177</v>
+        <v>511065</v>
       </c>
       <c r="R4" t="n">
-        <v>7079788</v>
+        <v>7080083</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -995,7 +1020,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112194222</v>
+        <v>112194226</v>
       </c>
       <c r="B5" t="n">
         <v>56430</v>
@@ -1028,33 +1053,17 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>511065</v>
+        <v>511177</v>
       </c>
       <c r="R5" t="n">
-        <v>7080083</v>
+        <v>7079788</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1113,10 +1122,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112194228</v>
+        <v>112194220</v>
       </c>
       <c r="B6" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1129,34 +1138,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>511193</v>
+        <v>511163</v>
       </c>
       <c r="R6" t="n">
-        <v>7079842</v>
+        <v>7080066</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1189,6 +1202,11 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1215,7 +1233,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112194223</v>
+        <v>112194221</v>
       </c>
       <c r="B7" t="n">
         <v>56430</v>
@@ -1259,10 +1277,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>510986</v>
+        <v>511121</v>
       </c>
       <c r="R7" t="n">
-        <v>7079917</v>
+        <v>7080073</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1299,7 +1317,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1326,7 +1344,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112194219</v>
+        <v>112194225</v>
       </c>
       <c r="B8" t="n">
         <v>56430</v>
@@ -1360,20 +1378,16 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>511201</v>
+        <v>511026</v>
       </c>
       <c r="R8" t="n">
-        <v>7080015</v>
+        <v>7079794</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1406,11 +1420,6 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1437,10 +1446,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112194221</v>
+        <v>112194228</v>
       </c>
       <c r="B9" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1453,38 +1462,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>511121</v>
+        <v>511193</v>
       </c>
       <c r="R9" t="n">
-        <v>7080073</v>
+        <v>7079842</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1517,11 +1522,6 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 44015-2019.xlsx
+++ b/artfynd/A 44015-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112194219</v>
+        <v>112194226</v>
       </c>
       <c r="B2" t="n">
         <v>56430</v>
@@ -714,20 +714,16 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>511201</v>
+        <v>511177</v>
       </c>
       <c r="R2" t="n">
-        <v>7080015</v>
+        <v>7079788</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -760,11 +756,6 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -1020,7 +1011,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112194226</v>
+        <v>112194221</v>
       </c>
       <c r="B5" t="n">
         <v>56430</v>
@@ -1054,16 +1045,20 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>511177</v>
+        <v>511121</v>
       </c>
       <c r="R5" t="n">
-        <v>7079788</v>
+        <v>7080073</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1096,6 +1091,11 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1233,10 +1233,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112194221</v>
+        <v>112194228</v>
       </c>
       <c r="B7" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1249,38 +1249,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>511121</v>
+        <v>511193</v>
       </c>
       <c r="R7" t="n">
-        <v>7080073</v>
+        <v>7079842</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1313,11 +1309,6 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1446,10 +1437,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112194228</v>
+        <v>112194219</v>
       </c>
       <c r="B9" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1462,34 +1453,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>raskflobäcken, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>511193</v>
+        <v>511201</v>
       </c>
       <c r="R9" t="n">
-        <v>7079842</v>
+        <v>7080015</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1522,6 +1517,11 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD9" t="b">
